--- a/Module 23 - Revenue from Contracts with Customers.xlsx
+++ b/Module 23 - Revenue from Contracts with Customers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AC1504BD-9F58-4338-AE1C-6F0A00E8DF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BFEE8C2-BE7D-4554-AF17-65121B999D17}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{AC1504BD-9F58-4338-AE1C-6F0A00E8DF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B61A793-97EA-42C6-AB76-8014F0137B03}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2625" windowWidth="21600" windowHeight="11385" tabRatio="724" activeTab="1" xr2:uid="{0F730D26-0B02-4D79-9115-73F477E08AB2}"/>
+    <workbookView xWindow="1395" yWindow="1410" windowWidth="21600" windowHeight="11385" tabRatio="724" activeTab="1" xr2:uid="{0F730D26-0B02-4D79-9115-73F477E08AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="395">
   <si>
     <t>Main</t>
   </si>
@@ -53,36 +53,6 @@
     <t>Module 23</t>
   </si>
   <si>
-    <t>Step 1L</t>
-  </si>
-  <si>
-    <t>idenitify the contract with a customer</t>
-  </si>
-  <si>
-    <t>step 2:</t>
-  </si>
-  <si>
-    <t>performance obligation</t>
-  </si>
-  <si>
-    <t>step 3:</t>
-  </si>
-  <si>
-    <t>determine price</t>
-  </si>
-  <si>
-    <t>step 4:</t>
-  </si>
-  <si>
-    <t>allocate price to obligations</t>
-  </si>
-  <si>
-    <t>step 5:</t>
-  </si>
-  <si>
-    <t>recognisde revenue where entity satisfies performanc obligaiton</t>
-  </si>
-  <si>
     <t>Enforcable right and obligations between two parties</t>
   </si>
   <si>
@@ -1245,6 +1215,21 @@
   </si>
   <si>
     <t>Recognise the revenue (or as) the entity satisfies a performance obligations</t>
+  </si>
+  <si>
+    <t>Step 2 – Identify the performance obligations in the contract</t>
+  </si>
+  <si>
+    <t>Step 3 – Determine transaction price</t>
+  </si>
+  <si>
+    <t>Step 4 – Allocate the transaction price to the performance obligations in the contract</t>
+  </si>
+  <si>
+    <t>Step 5 – Recognise revenue when (or as) the entity satisfies a performance obligation</t>
+  </si>
+  <si>
+    <t>Step 1 - idenitify the contract with a customer</t>
   </si>
 </sst>
 </file>
@@ -2028,42 +2013,42 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2103,12 +2088,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10">
         <v>46387</v>
@@ -2116,20 +2101,20 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2137,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2145,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2153,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2166,12 +2151,12 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C16" s="10">
         <v>46174</v>
@@ -2179,18 +2164,18 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C17" s="10">
         <v>46204</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C19" s="10">
         <v>46568</v>
@@ -2198,7 +2183,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C20" s="12">
         <v>161000</v>
@@ -2206,7 +2191,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C21" s="12">
         <v>145000</v>
@@ -2214,7 +2199,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C22" s="12">
         <f>+C20-C21</f>
@@ -2226,22 +2211,22 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C29" s="12">
         <f>YEARFRAC(C17,C4)*12</f>
@@ -2250,7 +2235,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C30" s="12">
         <f>YEARFRAC(C4,C19)*12</f>
@@ -2274,7 +2259,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E34" s="12">
         <f>+C21+C31</f>
@@ -2283,7 +2268,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F35" s="12">
         <f>+C21</f>
@@ -2292,7 +2277,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F36" s="12">
         <f>+C31</f>
@@ -2301,17 +2286,17 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -2319,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -2327,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -2335,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -2343,12 +2328,12 @@
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2">
         <v>175000</v>
@@ -2356,7 +2341,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C48" s="10">
         <v>46296</v>
@@ -2364,7 +2349,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C49" s="10">
         <v>46296</v>
@@ -2372,18 +2357,18 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="38" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2">
         <v>9</v>
@@ -2398,7 +2383,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="37" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2">
         <v>22</v>
@@ -2413,7 +2398,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="37" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C54" s="2">
         <v>44</v>
@@ -2434,12 +2419,12 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E58" s="2">
         <f>+E55</f>
@@ -2448,7 +2433,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2">
         <f>+E58</f>
@@ -2457,7 +2442,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -2473,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BB08BF-FB00-4488-A0FD-2BEC8630721C}">
   <dimension ref="A1:G321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G302" sqref="G302"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,67 +2471,52 @@
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>420000</v>
@@ -2554,77 +2524,77 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C49" s="4">
         <v>45658</v>
@@ -2643,7 +2613,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C51" s="5">
         <f>0.04*C50</f>
@@ -2655,7 +2625,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C52" s="6">
         <f>+C50+C51</f>
@@ -2672,7 +2642,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
         <v>45658</v>
@@ -2685,14 +2655,14 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E58" s="5">
         <f>+C50</f>
@@ -2701,7 +2671,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E59" s="5">
         <f>+C51</f>
@@ -2710,7 +2680,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F60" s="5">
         <f>+C52</f>
@@ -2722,12 +2692,12 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E65" s="5">
         <f>+C51</f>
@@ -2736,7 +2706,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F66" s="5">
         <f>+E65</f>
@@ -2745,36 +2715,36 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C85" s="4">
         <v>46753</v>
@@ -2782,29 +2752,29 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C86">
         <v>5.5</v>
       </c>
       <c r="D86" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C87">
         <v>1000000</v>
       </c>
       <c r="D87" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -2815,12 +2785,12 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F91">
         <f>+B89*C86</f>
@@ -2829,7 +2799,7 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F92">
         <f>+B89*5</f>
@@ -2838,7 +2808,7 @@
     </row>
     <row r="93" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F93" s="8">
         <f>+F91-F92</f>
@@ -2850,16 +2820,16 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F95" s="9"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
@@ -2897,12 +2867,12 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2910,7 +2880,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C105">
         <v>100000</v>
@@ -2918,12 +2888,12 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C107" s="17">
         <v>0.06</v>
@@ -2931,7 +2901,7 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C108" s="4">
         <v>44562</v>
@@ -2939,7 +2909,7 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C109" s="4">
         <v>45292</v>
@@ -2972,7 +2942,7 @@
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E114" s="5">
         <f>+C111</f>
@@ -2982,7 +2952,7 @@
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5">
@@ -2996,7 +2966,7 @@
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E117" s="5">
         <f>+C107*C111</f>
@@ -3006,7 +2976,7 @@
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5">
@@ -3014,7 +2984,7 @@
         <v>5339.9786400854382</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
@@ -3030,7 +3000,7 @@
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E121" s="5">
         <f>+C107*(E114+E117)</f>
@@ -3040,7 +3010,7 @@
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5">
@@ -3050,16 +3020,16 @@
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D124" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E124" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F124" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -3104,7 +3074,7 @@
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E128" s="5">
         <f>+F126</f>
@@ -3113,7 +3083,7 @@
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F129" s="5">
         <f>+E128</f>
@@ -3122,20 +3092,20 @@
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E190" s="4">
         <v>47391</v>
@@ -3143,7 +3113,7 @@
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E191" s="5">
         <v>35000000</v>
@@ -3151,7 +3121,7 @@
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E192" s="5">
         <v>29000000</v>
@@ -3159,7 +3129,7 @@
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D193" s="4">
         <f>+E190</f>
@@ -3171,7 +3141,7 @@
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D194" s="4">
         <v>47026</v>
@@ -3206,7 +3176,7 @@
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E200" s="5">
         <f>+E198</f>
@@ -3215,7 +3185,7 @@
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F201" s="5">
         <f>+E198</f>
@@ -3224,22 +3194,22 @@
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C206" s="4">
         <v>45230</v>
@@ -3247,18 +3217,18 @@
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D208" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E208" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C209">
         <v>400</v>
@@ -3274,7 +3244,7 @@
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C210">
         <v>200</v>
@@ -3289,7 +3259,7 @@
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C211">
         <v>20</v>
@@ -3304,7 +3274,7 @@
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C212">
         <v>10</v>
@@ -3332,7 +3302,7 @@
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="27"/>
@@ -3340,7 +3310,7 @@
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="27">
@@ -3356,7 +3326,7 @@
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="27"/>
@@ -3364,7 +3334,7 @@
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="27"/>
@@ -3377,7 +3347,7 @@
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="27"/>
@@ -3385,7 +3355,7 @@
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="27"/>
@@ -3398,7 +3368,7 @@
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -3406,7 +3376,7 @@
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C225">
         <v>120</v>
@@ -3423,7 +3393,7 @@
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C226">
         <v>45</v>
@@ -3440,7 +3410,7 @@
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C227">
         <v>4</v>
@@ -3457,7 +3427,7 @@
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C228">
         <v>2</v>
@@ -3487,7 +3457,7 @@
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5">
@@ -3498,7 +3468,7 @@
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -3509,12 +3479,12 @@
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D260" s="5">
         <v>5000</v>
@@ -3522,7 +3492,7 @@
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D261" s="28">
         <v>-2000</v>
@@ -3530,7 +3500,7 @@
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D262" s="5">
         <f>SUM(D260:D261)</f>
@@ -3539,7 +3509,7 @@
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D263" s="5">
         <v>3850</v>
@@ -3547,7 +3517,7 @@
     </row>
     <row r="264" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D264" s="26">
         <f>+D263-D262</f>
@@ -3557,7 +3527,7 @@
     <row r="265" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E266" s="5">
         <f>+D264</f>
@@ -3566,7 +3536,7 @@
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F267" s="5">
         <f>+E266</f>
@@ -3575,25 +3545,25 @@
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D271" s="29" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E271" s="29" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D272" s="5">
         <v>800</v>
@@ -3604,7 +3574,7 @@
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D273" s="5">
         <v>200</v>
@@ -3615,7 +3585,7 @@
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D274" s="5">
         <v>290</v>
@@ -3626,7 +3596,7 @@
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D275" s="5">
         <v>10</v>
@@ -3635,12 +3605,12 @@
         <v>5</v>
       </c>
       <c r="F275" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="276" spans="2:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B276" s="30" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D276" s="31">
         <v>22</v>
@@ -3651,7 +3621,7 @@
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D277" s="5">
         <v>90</v>
@@ -3662,7 +3632,7 @@
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D278" s="5">
         <v>600</v>
@@ -3673,7 +3643,7 @@
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D279" s="5">
         <v>510</v>
@@ -3684,7 +3654,7 @@
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D281" s="5">
         <f>+D277+D275+D274+D273</f>
@@ -3697,7 +3667,7 @@
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D282" s="5">
         <f>+D273+D274+D275</f>
@@ -3714,7 +3684,7 @@
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D283" s="25">
         <f>+D282/D281</f>
@@ -3731,7 +3701,7 @@
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D285" s="32">
         <f>+D272-D281</f>
@@ -3742,7 +3712,7 @@
         <v>100</v>
       </c>
       <c r="F285" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.25">
@@ -3751,7 +3721,7 @@
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D287" s="5">
         <f>+D283*D272</f>
@@ -3768,7 +3738,7 @@
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D289" s="5">
         <f>+D278</f>
@@ -3785,7 +3755,7 @@
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D290" s="5">
         <f>+D279</f>
@@ -3802,7 +3772,7 @@
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D291" s="5">
         <f>+D289-D290</f>
@@ -3815,12 +3785,12 @@
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E294" s="5">
         <f>+D287</f>
@@ -3829,7 +3799,7 @@
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E295" s="5">
         <f>+E287</f>
@@ -3838,7 +3808,7 @@
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F296" s="5">
         <f>+F287</f>
@@ -3847,17 +3817,17 @@
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E300" s="5">
         <f>+F282</f>
@@ -3866,7 +3836,7 @@
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F301" s="5">
         <f>+E300</f>
@@ -3875,17 +3845,17 @@
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E305" s="5">
         <f>+F289</f>
@@ -3894,7 +3864,7 @@
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F306" s="5">
         <f>+D289</f>
@@ -3903,7 +3873,7 @@
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F307" s="5">
         <f>+E289</f>
@@ -3912,12 +3882,12 @@
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E310" s="5">
         <f>+F290</f>
@@ -3926,7 +3896,7 @@
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F311" s="5">
         <f>+F290</f>
@@ -3935,7 +3905,7 @@
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.25">
@@ -3950,7 +3920,7 @@
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D315" s="5">
         <f>+D287</f>
@@ -3963,7 +3933,7 @@
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D316" s="5">
         <f>+D289</f>
@@ -3976,7 +3946,7 @@
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D317" s="5">
         <f>+D316-D315</f>
@@ -3989,7 +3959,7 @@
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D319" s="5">
         <f>+D316</f>
@@ -4002,7 +3972,7 @@
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D320" s="5">
         <f>+D290</f>
@@ -4015,7 +3985,7 @@
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D321" s="5">
         <f>+D320-D319</f>
@@ -4056,176 +4026,176 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="13" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4265,12 +4235,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C5" s="10">
         <v>45016</v>
@@ -4278,58 +4248,58 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C20" s="10">
         <v>44743</v>
@@ -4337,27 +4307,27 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C21" s="15">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2">
         <v>1000000</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F22" s="10">
         <v>45107</v>
@@ -4365,7 +4335,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2">
         <v>0.5</v>
@@ -4373,12 +4343,12 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C27" s="12">
         <v>768000</v>
@@ -4392,7 +4362,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E30" s="12">
         <f>+C23*C28</f>
@@ -4402,7 +4372,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12">
@@ -4412,37 +4382,37 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C40" s="21">
         <v>9</v>
@@ -4458,7 +4428,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C41" s="21">
         <v>4.5</v>
@@ -4480,18 +4450,18 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2">
         <v>10000</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C44" s="10">
         <v>45013</v>
@@ -4505,13 +4475,13 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
@@ -4620,7 +4590,7 @@
     </row>
     <row r="53" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -4634,7 +4604,7 @@
     <row r="54" spans="2:8" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E55" s="21">
         <f>+G53</f>
@@ -4643,7 +4613,7 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E56" s="12">
         <f>+G51</f>
@@ -4653,7 +4623,7 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F57" s="12">
         <f>+G52</f>
@@ -4662,27 +4632,27 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="24" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="24" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="24" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="24" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4717,12 +4687,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10">
         <v>45838</v>
@@ -4730,12 +4700,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C6" s="10">
         <v>45658</v>
@@ -4743,7 +4713,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C7" s="10">
         <v>45658</v>
@@ -4754,12 +4724,12 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <f>+D7</f>
@@ -4768,7 +4738,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2">
         <f>+E10</f>
@@ -4777,27 +4747,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -4820,7 +4790,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12">
@@ -4830,7 +4800,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12">
@@ -4840,7 +4810,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E25" s="11">
         <f>+D23</f>
@@ -4849,7 +4819,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F26" s="11">
         <f>+E25</f>
@@ -4858,7 +4828,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F27" s="11"/>
     </row>
@@ -4867,7 +4837,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F29" s="11"/>
     </row>
@@ -4891,7 +4861,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E34" s="11">
         <f>+C32</f>
@@ -4900,7 +4870,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F35" s="11">
         <f>+E34</f>
@@ -4909,7 +4879,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4939,12 +4909,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C5" s="10">
         <v>44804</v>
@@ -4952,27 +4922,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D11" s="12">
         <v>124000</v>
@@ -4980,7 +4950,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D12" s="12">
         <v>129000</v>
@@ -4988,12 +4958,12 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D15" s="22">
         <f>+D12</f>
@@ -5005,7 +4975,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E17" s="12">
         <f>+F18</f>
@@ -5014,7 +4984,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D18" s="35"/>
       <c r="F18" s="12">
@@ -5024,19 +4994,19 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D19" s="35"/>
       <c r="F19" s="12"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C22" s="12">
         <v>10000</v>
@@ -5044,7 +5014,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C23" s="12">
         <v>11000</v>
@@ -5052,22 +5022,22 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E29" s="12">
         <f>+C23</f>
@@ -5077,7 +5047,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12">
@@ -5087,17 +5057,17 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2">
         <v>13800</v>
@@ -5108,22 +5078,22 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5153,15 +5123,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10">
         <v>47118</v>
@@ -5169,12 +5139,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C8" s="10">
         <v>46905</v>
@@ -5182,7 +5152,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -5190,17 +5160,17 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C12" s="10">
         <v>46996</v>
@@ -5211,31 +5181,31 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C18" s="12">
         <v>150000</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -5246,13 +5216,13 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C21" s="12">
         <v>100000</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -5263,17 +5233,17 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C28" s="10">
         <v>47083</v>
@@ -5284,7 +5254,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C29" s="10">
         <v>47087</v>
@@ -5292,7 +5262,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C30" s="10">
         <v>47087</v>
@@ -5300,24 +5270,24 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C31" s="12">
         <v>8000</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C32" s="12">
         <v>8000</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -5325,7 +5295,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C34" s="12">
         <v>145000</v>
@@ -5333,23 +5303,23 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2">
         <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D38" s="12">
         <f>+C34</f>
@@ -5358,20 +5328,20 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E41" s="36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E42" s="12">
         <f>(+C21)*(10/1000)</f>
@@ -5381,7 +5351,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E43" s="12">
         <f>+C32/1000</f>
@@ -5391,7 +5361,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E44" s="12">
         <f>(+F45)</f>
@@ -5401,7 +5371,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12">
@@ -5411,7 +5381,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12">
@@ -5421,7 +5391,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12">
@@ -5431,7 +5401,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5463,15 +5433,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10">
         <v>46811</v>
@@ -5479,18 +5449,18 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>5.99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5501,7 +5471,7 @@
         <v>840</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5512,7 +5482,7 @@
         <v>952</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5523,7 +5493,7 @@
         <v>1030</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5534,90 +5504,90 @@
         <v>1125</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E31" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -5628,7 +5598,7 @@
         <v>840</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E32" s="2">
         <f>+C32</f>
@@ -5643,7 +5613,7 @@
         <v>952</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E33" s="2">
         <f>+C33-E32</f>
@@ -5658,7 +5628,7 @@
         <v>1030</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ref="E34:E35" si="0">+C34-E33</f>
@@ -5673,7 +5643,7 @@
         <v>1125</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
@@ -5690,7 +5660,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -5737,7 +5707,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C44" s="12">
         <f>+C35*$C$6*0.666666666666667</f>
@@ -5750,7 +5720,7 @@
         <v>399.33333333333331</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -5762,7 +5732,7 @@
         <v>359.40000000000003</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -5773,7 +5743,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C49" s="12">
         <f>+C47</f>
@@ -5782,7 +5752,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E51" s="12">
         <f>+C43</f>
@@ -5791,7 +5761,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E52" s="12">
         <f>SUM(C44:C46)</f>
@@ -5800,7 +5770,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F53" s="12">
         <f>+C49</f>
@@ -5809,7 +5779,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5841,12 +5811,12 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10">
         <v>46477</v>
@@ -5854,7 +5824,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C6" s="10">
         <v>46174</v>
@@ -5862,7 +5832,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C7" s="10">
         <v>46904</v>
@@ -5870,7 +5840,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2">
         <v>11000000</v>
@@ -5878,79 +5848,79 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C9" s="33">
         <v>0.05</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C10" s="12">
         <f>+C9*C8</f>
         <v>550000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2">
         <v>50000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C21" s="12">
         <v>4200</v>
@@ -5958,7 +5928,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C22" s="12">
         <v>2650</v>
@@ -5966,7 +5936,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C23" s="12">
         <v>240</v>
@@ -5974,7 +5944,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C24" s="12">
         <v>330</v>
@@ -5982,7 +5952,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C25" s="34">
         <v>320</v>
@@ -5990,18 +5960,18 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C26" s="34">
         <v>260</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C27" s="12">
         <v>34</v>
@@ -6009,7 +5979,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C28" s="12">
         <v>2100</v>
@@ -6020,7 +5990,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C30" s="12">
         <v>4300</v>
@@ -6028,28 +5998,28 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2">
         <v>5300</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C36" s="12">
         <f>+C21+C22+C23+C24+C27</f>
@@ -6058,7 +6028,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C37" s="12">
         <f>+C28</f>
@@ -6067,24 +6037,24 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C40" s="2">
         <f>(+C8+C10)/1000</f>
         <v>11550</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C41" s="12">
         <f>SUM(C21:C28)-C25-C26</f>
@@ -6093,7 +6063,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C42" s="12">
         <f>+C40-C41</f>
@@ -6102,12 +6072,12 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C46" s="33">
         <f>+C30/C41</f>
@@ -6116,7 +6086,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C48" s="12">
         <f>+C46*C40</f>
@@ -6125,7 +6095,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E50" s="12">
         <f>+C48</f>
@@ -6134,7 +6104,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F51" s="12">
         <f>+E50</f>
@@ -6143,22 +6113,22 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E57" s="12">
         <f>+C30</f>
@@ -6167,7 +6137,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F58" s="12">
         <f>+E57</f>
@@ -6176,12 +6146,12 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="20" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E61" s="2">
         <f>+C31</f>
@@ -6190,7 +6160,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F62" s="2">
         <f>+E61</f>
@@ -6199,53 +6169,53 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E68" s="12">
         <f>+C48</f>
         <v>5198.346242411556</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E69" s="2">
         <f>+C31</f>
         <v>5300</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E70" s="22">
         <f>+E69-E68</f>
         <v>101.65375758844402</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>

--- a/Module 23 - Revenue from Contracts with Customers.xlsx
+++ b/Module 23 - Revenue from Contracts with Customers.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{AC1504BD-9F58-4338-AE1C-6F0A00E8DF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B61A793-97EA-42C6-AB76-8014F0137B03}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{AC1504BD-9F58-4338-AE1C-6F0A00E8DF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F73584-D15C-4106-95CA-B316C5663F24}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1410" windowWidth="21600" windowHeight="11385" tabRatio="724" activeTab="1" xr2:uid="{0F730D26-0B02-4D79-9115-73F477E08AB2}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="12420" windowHeight="11385" tabRatio="724" activeTab="1" xr2:uid="{0F730D26-0B02-4D79-9115-73F477E08AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="396">
   <si>
     <t>Main</t>
   </si>
@@ -1230,6 +1230,9 @@
   </si>
   <si>
     <t>Step 1 - idenitify the contract with a customer</t>
+  </si>
+  <si>
+    <t>Module 23 - Revenue from Contracts with Customers</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1244,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1313,6 +1316,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1361,7 +1372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1405,6 +1416,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1429,13 +1441,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>53115</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1473,13 +1485,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>135561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1517,13 +1529,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>324828</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>19983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1561,13 +1573,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>417637</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1605,13 +1617,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>63043</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1994,6 +2006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265F0004-2B25-41F4-8841-DC5251B91AEC}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2070,6 +2083,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CF4491-B1C0-440B-B648-52FEAEA63DA4}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -2456,10 +2470,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BB08BF-FB00-4488-A0FD-2BEC8630721C}">
-  <dimension ref="A1:G321"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,72 +2492,90 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
+      <c r="B2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>394</v>
+      <c r="B6" s="39" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>390</v>
+      <c r="B7" s="39" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B8" s="39" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>420000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -2550,1149 +2583,1153 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D47" s="4">
+        <v>46022</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>17</v>
+      <c r="C48" s="5">
+        <v>400000</v>
+      </c>
+      <c r="D48" s="5">
+        <v>400000</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="4">
-        <v>45658</v>
-      </c>
-      <c r="D49" s="4">
-        <v>46022</v>
+        <v>19</v>
+      </c>
+      <c r="C49" s="5">
+        <f>0.04*C48</f>
+        <v>16000</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="5">
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="6">
+        <f>+C48+C49</f>
+        <v>416000</v>
+      </c>
+      <c r="D50" s="6">
+        <f>+D48-D49</f>
         <v>400000</v>
       </c>
-      <c r="D50" s="5">
-        <v>400000</v>
-      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="5">
-        <f>0.04*C50</f>
-        <v>16000</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="6">
-        <f>+C50+C51</f>
-        <v>416000</v>
-      </c>
-      <c r="D52" s="6">
-        <f>+D50-D51</f>
-        <v>400000</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C52" s="7">
+        <v>45658</v>
+      </c>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="6"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="7">
-        <v>45658</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C54" s="7"/>
       <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="E56" s="5">
+        <f>+C48</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="5">
+        <f>+C49</f>
+        <v>16000</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="5">
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="5">
         <f>+C50</f>
-        <v>400000</v>
+        <v>416000</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="5">
-        <f>+C51</f>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="5">
+        <f>+C49</f>
         <v>16000</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="5">
-        <f>+C52</f>
-        <v>416000</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>26</v>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="5">
+        <f>+E63</f>
+        <v>16000</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="5">
-        <f>+C51</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="5">
-        <f>+E65</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>33</v>
-      </c>
-      <c r="F81" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+      <c r="C80" t="s">
         <v>37</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F80" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="4">
+        <v>46753</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84">
+        <v>5.5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="4">
-        <v>46753</v>
+        <v>41</v>
+      </c>
+      <c r="C85">
+        <v>1000000</v>
+      </c>
+      <c r="D85" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C86">
-        <v>5.5</v>
-      </c>
-      <c r="D86" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>41</v>
-      </c>
-      <c r="C87">
-        <v>1000000</v>
-      </c>
-      <c r="D87" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88">
-        <v>5</v>
+      <c r="B87">
+        <v>96</v>
+      </c>
+      <c r="C87" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>96</v>
-      </c>
-      <c r="C89" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89">
+        <f>+B87*C84</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90">
+        <f>+B87*5</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91">
-        <f>+B89*C86</f>
+        <v>50</v>
+      </c>
+      <c r="F91" s="8">
+        <f>+F89-F90</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="str">
+        <f>+B78</f>
+        <v>dr - bank/AR</v>
+      </c>
+      <c r="E96" s="5">
+        <f>+B87*C84</f>
         <v>528</v>
       </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C97" t="str">
+        <f>+C79</f>
+        <v>cr - SPL revenue</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5">
+        <f>+B87*5</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C98" t="str">
+        <f>+C80</f>
+        <v>cr - refund liability</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5">
+        <f>+B87*0.5</f>
         <v>48</v>
       </c>
-      <c r="F92">
-        <f>+B89*5</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>50</v>
-      </c>
-      <c r="F93" s="8">
-        <f>+F91-F92</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>51</v>
-      </c>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E97" t="s">
-        <v>44</v>
-      </c>
-      <c r="F97" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" t="str">
-        <f>+B80</f>
-        <v>dr - bank/AR</v>
-      </c>
-      <c r="E98" s="5">
-        <f>+B89*C86</f>
-        <v>528</v>
-      </c>
-      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C99" t="str">
-        <f>+C81</f>
-        <v>cr - SPL revenue</v>
-      </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5">
-        <f>+B89*5</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C100" t="str">
-        <f>+C82</f>
-        <v>cr - refund liability</v>
-      </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5">
-        <f>+B89*0.5</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+      <c r="B99" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103">
+        <v>100000</v>
+      </c>
+    </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
+      <c r="B104" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>82</v>
-      </c>
-      <c r="C105">
-        <v>100000</v>
+        <v>84</v>
+      </c>
+      <c r="C105" s="17">
+        <v>0.06</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C106" s="4">
+        <v>44562</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>84</v>
-      </c>
-      <c r="C107" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>82</v>
-      </c>
-      <c r="C108" s="4">
-        <v>44562</v>
+        <v>85</v>
+      </c>
+      <c r="C107" s="4">
+        <v>45292</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" s="4">
-        <v>45292</v>
+      <c r="C109" s="5">
+        <f>NPV(C105,C102:C103)</f>
+        <v>88999.644001423978</v>
+      </c>
+      <c r="D109" t="str">
+        <f ca="1">+_xlfn.FORMULATEXT(C109)</f>
+        <v>=NPV(C105,C102:C103)</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C110" s="5">
+        <f>+C103/(1+C105)^2</f>
+        <v>88999.644001423978</v>
+      </c>
+      <c r="D110" t="str">
+        <f ca="1">+_xlfn.FORMULATEXT(C110)</f>
+        <v>=+C103/(1+C105)^2</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C111" s="5">
-        <f>NPV(C107,C104:C105)</f>
+      <c r="B111" s="19">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="5">
+        <f>+C109</f>
         <v>88999.644001423978</v>
       </c>
-      <c r="D111" t="str">
-        <f ca="1">+_xlfn.FORMULATEXT(C111)</f>
-        <v>=NPV(C107,C104:C105)</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C112" s="5">
-        <f>+C105/(1+C107)^2</f>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5">
+        <f>+C109</f>
         <v>88999.644001423978</v>
       </c>
-      <c r="D112" t="str">
-        <f ca="1">+_xlfn.FORMULATEXT(C112)</f>
-        <v>=+C105/(1+C107)^2</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="19">
-        <v>44926</v>
-      </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>21</v>
       </c>
-      <c r="E114" s="5">
-        <f>+C111</f>
-        <v>88999.644001423978</v>
-      </c>
-      <c r="F114" s="5"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>20</v>
-      </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5">
-        <f>+C111</f>
-        <v>88999.644001423978</v>
-      </c>
+      <c r="E115" s="5">
+        <f>+C105*C109</f>
+        <v>5339.9786400854382</v>
+      </c>
+      <c r="F115" s="5"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>86</v>
+      </c>
       <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
+      <c r="F116" s="5">
+        <f>+E115</f>
+        <v>5339.9786400854382</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>21</v>
-      </c>
-      <c r="E117" s="5">
-        <f>+C107*C111</f>
-        <v>5339.9786400854382</v>
-      </c>
+      <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>86</v>
+      <c r="B118" s="19">
+        <v>45291</v>
       </c>
       <c r="E118" s="5"/>
-      <c r="F118" s="5">
-        <f>+E117</f>
-        <v>5339.9786400854382</v>
-      </c>
-      <c r="G118" s="18" t="s">
-        <v>96</v>
-      </c>
+      <c r="F118" s="5"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E119" s="5"/>
+      <c r="B119" t="s">
+        <v>87</v>
+      </c>
+      <c r="E119" s="5">
+        <f>+C105*(E112+E115)</f>
+        <v>5660.3773584905648</v>
+      </c>
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="19">
-        <v>45291</v>
+      <c r="C120" t="s">
+        <v>68</v>
       </c>
       <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>87</v>
-      </c>
-      <c r="E121" s="5">
-        <f>+C107*(E114+E117)</f>
+      <c r="F120" s="5">
+        <f>+E119</f>
         <v>5660.3773584905648</v>
       </c>
-      <c r="F121" s="5"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>68</v>
-      </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5">
-        <f>+E121</f>
+        <v>88</v>
+      </c>
+      <c r="D122" t="s">
+        <v>89</v>
+      </c>
+      <c r="E122" t="s">
+        <v>90</v>
+      </c>
+      <c r="F122" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="4">
+        <v>44926</v>
+      </c>
+      <c r="C123" s="5">
+        <f>+C109</f>
+        <v>88999.644001423978</v>
+      </c>
+      <c r="D123" s="5">
+        <f>+E115</f>
+        <v>5339.9786400854382</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" s="5">
+        <f>SUM(C123:E123)</f>
+        <v>94339.622641509413</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="4">
+        <v>45291</v>
+      </c>
+      <c r="C124" s="5">
+        <f>+F123</f>
+        <v>94339.622641509413</v>
+      </c>
+      <c r="D124" s="5">
+        <f>+E119</f>
         <v>5660.3773584905648</v>
       </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>88</v>
-      </c>
-      <c r="D124" t="s">
-        <v>89</v>
-      </c>
-      <c r="E124" t="s">
-        <v>90</v>
-      </c>
-      <c r="F124" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="4">
-        <v>44926</v>
-      </c>
-      <c r="C125" s="5">
-        <f>+C111</f>
-        <v>88999.644001423978</v>
-      </c>
-      <c r="D125" s="5">
-        <f>+E117</f>
-        <v>5339.9786400854382</v>
-      </c>
-      <c r="E125">
+      <c r="E124">
         <v>0</v>
       </c>
-      <c r="F125" s="5">
-        <f>SUM(C125:E125)</f>
-        <v>94339.622641509413</v>
+      <c r="F124" s="5">
+        <f>SUM(C124:E124)</f>
+        <v>99999.999999999971</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="4">
-        <v>45291</v>
-      </c>
-      <c r="C126" s="5">
-        <f>+F125</f>
-        <v>94339.622641509413</v>
-      </c>
-      <c r="D126" s="5">
-        <f>+E121</f>
-        <v>5660.3773584905648</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126" s="5">
-        <f>SUM(C126:E126)</f>
+      <c r="B126" t="s">
+        <v>92</v>
+      </c>
+      <c r="E126" s="5">
+        <f>+F124</f>
+        <v>99999.999999999971</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>93</v>
+      </c>
+      <c r="F127" s="5">
+        <f>+E126</f>
         <v>99999.999999999971</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>92</v>
-      </c>
-      <c r="E128" s="5">
-        <f>+F126</f>
-        <v>99999.999999999971</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>93</v>
-      </c>
-      <c r="F129" s="5">
-        <f>+E128</f>
-        <v>99999.999999999971</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
         <v>94</v>
       </c>
-      <c r="G130" s="18" t="s">
+      <c r="G128" s="18" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" s="4">
+        <v>47391</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="E189" s="5">
+        <v>35000000</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>55</v>
-      </c>
-      <c r="E190" s="4">
-        <v>47391</v>
+        <v>139</v>
+      </c>
+      <c r="E190" s="5">
+        <v>29000000</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>138</v>
-      </c>
-      <c r="E191" s="5">
-        <v>35000000</v>
+        <v>140</v>
+      </c>
+      <c r="D191" s="4">
+        <f>+E188</f>
+        <v>47391</v>
+      </c>
+      <c r="E191" s="25">
+        <v>0.75</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>139</v>
-      </c>
-      <c r="E192" s="5">
-        <v>29000000</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
         <v>140</v>
       </c>
-      <c r="D193" s="4">
-        <f>+E190</f>
+      <c r="D192" s="4">
+        <v>47026</v>
+      </c>
+      <c r="E192" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D194" s="4">
         <v>47391</v>
       </c>
-      <c r="E193" s="25">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>140</v>
-      </c>
-      <c r="D194" s="4">
+      <c r="E194" s="5">
+        <f>+E191*$E$189</f>
+        <v>26250000</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D195" s="4">
         <v>47026</v>
       </c>
-      <c r="E194" s="25">
-        <v>0.5</v>
+      <c r="E195" s="5">
+        <f>+E192*$E$189</f>
+        <v>17500000</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D196" s="4">
-        <v>47391</v>
-      </c>
       <c r="E196" s="5">
-        <f>+E193*$E$191</f>
-        <v>26250000</v>
-      </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D197" s="4">
-        <v>47026</v>
-      </c>
-      <c r="E197" s="5">
-        <f>+E194*$E$191</f>
-        <v>17500000</v>
+        <f>+E194-E195</f>
+        <v>8750000</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>141</v>
+      </c>
       <c r="E198" s="5">
-        <f>+E196-E197</f>
+        <f>+E196</f>
+        <v>8750000</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>61</v>
+      </c>
+      <c r="F199" s="5">
+        <f>+E196</f>
         <v>8750000</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>141</v>
-      </c>
-      <c r="E200" s="5">
-        <f>+E198</f>
-        <v>8750000</v>
+        <v>142</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C201" t="s">
-        <v>61</v>
-      </c>
-      <c r="F201" s="5">
-        <f>+E198</f>
-        <v>8750000</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>142</v>
+      <c r="B201" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
         <v>144</v>
       </c>
     </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" s="4">
+        <v>45230</v>
+      </c>
+    </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>55</v>
-      </c>
-      <c r="C206" s="4">
-        <v>45230</v>
-      </c>
+      <c r="C206" t="s">
+        <v>149</v>
+      </c>
+      <c r="D206" t="s">
+        <v>150</v>
+      </c>
+      <c r="E206" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>148</v>
+      </c>
+      <c r="C207">
+        <v>400</v>
+      </c>
+      <c r="D207" s="5">
+        <v>110</v>
+      </c>
+      <c r="E207" s="5">
+        <f>+C207*D207</f>
+        <v>44000</v>
+      </c>
+      <c r="F207" s="5"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C208" t="s">
-        <v>149</v>
-      </c>
-      <c r="D208" t="s">
-        <v>150</v>
-      </c>
-      <c r="E208" t="s">
-        <v>151</v>
-      </c>
+      <c r="B208" t="s">
+        <v>147</v>
+      </c>
+      <c r="C208">
+        <v>200</v>
+      </c>
+      <c r="D208" s="5">
+        <v>160</v>
+      </c>
+      <c r="E208" s="5">
+        <v>32000</v>
+      </c>
+      <c r="F208" s="5"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C209">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="D209" s="5">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="E209" s="5">
-        <f>+C209*D209</f>
-        <v>44000</v>
+        <v>4800</v>
       </c>
       <c r="F209" s="5"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C210">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D210" s="5">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="E210" s="5">
-        <v>32000</v>
+        <v>3500</v>
       </c>
       <c r="F210" s="5"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>146</v>
-      </c>
-      <c r="C211">
-        <v>20</v>
-      </c>
-      <c r="D211" s="5">
-        <v>240</v>
-      </c>
-      <c r="E211" s="5">
-        <v>4800</v>
+    <row r="211" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D211" s="5"/>
+      <c r="E211" s="26">
+        <f>SUM(E207:E210)</f>
+        <v>84300</v>
       </c>
       <c r="F211" s="5"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>145</v>
-      </c>
-      <c r="C212">
-        <v>10</v>
-      </c>
-      <c r="D212" s="5">
-        <v>350</v>
-      </c>
-      <c r="E212" s="5">
-        <v>3500</v>
-      </c>
+    <row r="212" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="5"/>
+      <c r="E212" s="27"/>
       <c r="F212" s="5"/>
     </row>
-    <row r="213" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>154</v>
+      </c>
       <c r="D213" s="5"/>
-      <c r="E213" s="26">
-        <f>SUM(E209:E212)</f>
+      <c r="E213" s="27"/>
+      <c r="F213" s="5"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>155</v>
+      </c>
+      <c r="D214" s="5"/>
+      <c r="E214" s="27">
+        <f>+E211</f>
         <v>84300</v>
       </c>
-      <c r="F213" s="5"/>
-    </row>
-    <row r="214" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D214" s="5"/>
-      <c r="E214" s="27"/>
       <c r="F214" s="5"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>154</v>
-      </c>
       <c r="D215" s="5"/>
       <c r="E215" s="27"/>
       <c r="F215" s="5"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D216" s="5"/>
-      <c r="E216" s="27">
-        <f>+E213</f>
-        <v>84300</v>
-      </c>
+      <c r="E216" s="27"/>
       <c r="F216" s="5"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>157</v>
+      </c>
       <c r="D217" s="5"/>
       <c r="E217" s="27"/>
       <c r="F217" s="5"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>156</v>
-      </c>
       <c r="D218" s="5"/>
       <c r="E218" s="27"/>
       <c r="F218" s="5"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="27"/>
       <c r="F219" s="5"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>159</v>
+      </c>
       <c r="D220" s="5"/>
       <c r="E220" s="27"/>
       <c r="F220" s="5"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>158</v>
-      </c>
       <c r="D221" s="5"/>
-      <c r="E221" s="27"/>
+      <c r="E221" s="5"/>
       <c r="F221" s="5"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D222" s="5"/>
-      <c r="E222" s="27"/>
+      <c r="E222" s="5"/>
       <c r="F222" s="5"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
+      <c r="B223" t="s">
+        <v>148</v>
+      </c>
+      <c r="C223">
+        <v>120</v>
+      </c>
+      <c r="D223" s="5">
+        <f>+D207</f>
+        <v>110</v>
+      </c>
+      <c r="E223" s="5">
+        <f>+C223*D223</f>
+        <v>13200</v>
+      </c>
       <c r="F223" s="5"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>152</v>
-      </c>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="C224">
+        <v>45</v>
+      </c>
+      <c r="D224" s="5">
+        <f t="shared" ref="D224:D226" si="0">+D208</f>
+        <v>160</v>
+      </c>
+      <c r="E224" s="5">
+        <f t="shared" ref="E224:E226" si="1">+C224*D224</f>
+        <v>7200</v>
+      </c>
       <c r="F224" s="5"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C225">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="D225" s="5">
-        <f>+D209</f>
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="E225" s="5">
-        <f>+C225*D225</f>
-        <v>13200</v>
+        <f t="shared" si="1"/>
+        <v>960</v>
       </c>
       <c r="F225" s="5"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C226">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D226" s="5">
-        <f t="shared" ref="D226:D228" si="0">+D210</f>
-        <v>160</v>
-      </c>
-      <c r="E226" s="5">
-        <f t="shared" ref="E226:E228" si="1">+C226*D226</f>
-        <v>7200</v>
-      </c>
-      <c r="F226" s="5"/>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
-        <v>146</v>
-      </c>
-      <c r="C227">
-        <v>4</v>
-      </c>
-      <c r="D227" s="5">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E227" s="5">
-        <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="F227" s="5"/>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
-        <v>145</v>
-      </c>
-      <c r="C228">
-        <v>2</v>
-      </c>
-      <c r="D228" s="5">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="E228" s="5">
+      <c r="E226" s="5">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
+      <c r="F226" s="5"/>
+    </row>
+    <row r="227" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D227" s="5"/>
+      <c r="E227" s="26">
+        <f>SUM(E223:E226)</f>
+        <v>22060</v>
+      </c>
+      <c r="F227" s="5"/>
+    </row>
+    <row r="228" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
       <c r="F228" s="5"/>
     </row>
-    <row r="229" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>28</v>
+      </c>
       <c r="D229" s="5"/>
-      <c r="E229" s="26">
-        <f>SUM(E225:E228)</f>
+      <c r="E229" s="5">
+        <f>+E227</f>
         <v>22060</v>
       </c>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>61</v>
+      </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
-      <c r="F230" s="5"/>
+      <c r="F230" s="5">
+        <f>+E229</f>
+        <v>22060</v>
+      </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>28</v>
-      </c>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5">
-        <f>+E229</f>
-        <v>22060</v>
-      </c>
-      <c r="F231" s="5"/>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C232" t="s">
-        <v>61</v>
-      </c>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5">
-        <f>+E231</f>
-        <v>22060</v>
-      </c>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>181</v>
+      </c>
+      <c r="D258" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>182</v>
+      </c>
+      <c r="D259" s="28">
+        <v>-2000</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D260" s="5">
-        <v>5000</v>
+        <f>SUM(D258:D259)</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>182</v>
-      </c>
-      <c r="D261" s="28">
-        <v>-2000</v>
-      </c>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="D261" s="5">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
-        <v>185</v>
-      </c>
-      <c r="D262" s="5">
-        <f>SUM(D260:D261)</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
-        <v>184</v>
-      </c>
-      <c r="D263" s="5">
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="264" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="D262" s="26">
+        <f>+D261-D260</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>183</v>
-      </c>
-      <c r="D264" s="26">
-        <f>+D263-D262</f>
+        <v>186</v>
+      </c>
+      <c r="E264" s="5">
+        <f>+D262</f>
         <v>850</v>
       </c>
     </row>
-    <row r="265" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>187</v>
+      </c>
+      <c r="F265" s="5">
+        <f>+E264</f>
+        <v>850</v>
+      </c>
+    </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>186</v>
-      </c>
-      <c r="E266" s="5">
-        <f>+D264</f>
-        <v>850</v>
-      </c>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C267" t="s">
-        <v>187</v>
-      </c>
-      <c r="F267" s="5">
-        <f>+E266</f>
-        <v>850</v>
+        <v>188</v>
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D269" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E269" s="29" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>189</v>
+        <v>197</v>
+      </c>
+      <c r="D270" s="5">
+        <v>800</v>
+      </c>
+      <c r="E270" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D271" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E271" s="29" t="s">
-        <v>199</v>
+      <c r="B271" t="s">
+        <v>196</v>
+      </c>
+      <c r="D271" s="5">
+        <v>200</v>
+      </c>
+      <c r="E271" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D272" s="5">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="E272" s="5">
-        <v>400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D273" s="5">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E273" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
-        <v>195</v>
-      </c>
-      <c r="D274" s="5">
-        <v>290</v>
-      </c>
-      <c r="E274" s="5">
-        <v>20</v>
+      <c r="F273" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D274" s="31">
+        <v>22</v>
+      </c>
+      <c r="E274" s="31">
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D275" s="5">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E275" s="5">
-        <v>5</v>
-      </c>
-      <c r="F275" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="276" spans="2:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D276" s="31">
-        <v>22</v>
-      </c>
-      <c r="E276" s="31">
-        <v>3</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>191</v>
+      </c>
+      <c r="D276" s="5">
+        <v>600</v>
+      </c>
+      <c r="E276" s="5">
+        <v>75</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D277" s="5">
-        <v>90</v>
+        <v>510</v>
       </c>
       <c r="E277" s="5">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
-        <v>191</v>
-      </c>
-      <c r="D278" s="5">
-        <v>600</v>
-      </c>
-      <c r="E278" s="5">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D279" s="5">
-        <v>510</v>
+        <f>+D275+D273+D272+D271</f>
+        <v>590</v>
       </c>
       <c r="E279" s="5">
-        <v>0</v>
+        <f>+E275+E273+E272+E271</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>202</v>
+      </c>
+      <c r="D280" s="5">
+        <f>+D271+D272+D273</f>
+        <v>500</v>
+      </c>
+      <c r="E280" s="5">
+        <f>+E271+E272+E273</f>
+        <v>30</v>
+      </c>
+      <c r="F280" s="5">
+        <f>SUM(D280:E280)</f>
+        <v>530</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>201</v>
-      </c>
-      <c r="D281" s="5">
-        <f>+D277+D275+D274+D273</f>
-        <v>590</v>
-      </c>
-      <c r="E281" s="5">
-        <f>+E277+E275+E274+E273</f>
-        <v>300</v>
+        <v>140</v>
+      </c>
+      <c r="D281" s="25">
+        <f>+D280/D279</f>
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="E281" s="25">
+        <f>+E280/E279</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
-        <v>202</v>
-      </c>
-      <c r="D282" s="5">
-        <f>+D273+D274+D275</f>
-        <v>500</v>
-      </c>
-      <c r="E282" s="5">
-        <f>+E273+E274+E275</f>
-        <v>30</v>
-      </c>
-      <c r="F282" s="5">
-        <f>SUM(D282:E282)</f>
-        <v>530</v>
-      </c>
+      <c r="D282" s="25"/>
+      <c r="E282" s="25"/>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>140</v>
-      </c>
-      <c r="D283" s="25">
-        <f>+D282/D281</f>
-        <v>0.84745762711864403</v>
-      </c>
-      <c r="E283" s="25">
-        <f>+E282/E281</f>
-        <v>0.1</v>
+        <v>205</v>
+      </c>
+      <c r="D283" s="32">
+        <f>+D270-D279</f>
+        <v>210</v>
+      </c>
+      <c r="E283" s="32">
+        <f>+E270-E279</f>
+        <v>100</v>
+      </c>
+      <c r="F283" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.25">
@@ -3701,298 +3738,278 @@
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>205</v>
-      </c>
-      <c r="D285" s="32">
-        <f>+D272-D281</f>
-        <v>210</v>
-      </c>
-      <c r="E285" s="32">
-        <f>+E272-E281</f>
-        <v>100</v>
-      </c>
-      <c r="F285" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D286" s="25"/>
-      <c r="E286" s="25"/>
+        <v>207</v>
+      </c>
+      <c r="D285" s="5">
+        <f>+D281*D270</f>
+        <v>677.96610169491521</v>
+      </c>
+      <c r="E285" s="5">
+        <f>+E281*E270</f>
+        <v>40</v>
+      </c>
+      <c r="F285" s="5">
+        <f>SUM(D285:E285)</f>
+        <v>717.96610169491521</v>
+      </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D287" s="5">
-        <f>+D283*D272</f>
-        <v>677.96610169491521</v>
+        <f>+D276</f>
+        <v>600</v>
       </c>
       <c r="E287" s="5">
-        <f>+E283*E272</f>
-        <v>40</v>
+        <f>+E276</f>
+        <v>75</v>
       </c>
       <c r="F287" s="5">
         <f>SUM(D287:E287)</f>
-        <v>717.96610169491521</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>204</v>
+      </c>
+      <c r="D288" s="5">
+        <f>+D277</f>
+        <v>510</v>
+      </c>
+      <c r="E288" s="5">
+        <f>+E277</f>
+        <v>0</v>
+      </c>
+      <c r="F288" s="5">
+        <f>SUM(D288:E288)</f>
+        <v>510</v>
       </c>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="D289" s="5">
-        <f>+D278</f>
-        <v>600</v>
+        <f>+D287-D288</f>
+        <v>90</v>
       </c>
       <c r="E289" s="5">
-        <f>+E278</f>
+        <f>+E287-E288</f>
         <v>75</v>
-      </c>
-      <c r="F289" s="5">
-        <f>SUM(D289:E289)</f>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B290" t="s">
-        <v>204</v>
-      </c>
-      <c r="D290" s="5">
-        <f>+D279</f>
-        <v>510</v>
-      </c>
-      <c r="E290" s="5">
-        <f>+E279</f>
-        <v>0</v>
-      </c>
-      <c r="F290" s="5">
-        <f>SUM(D290:E290)</f>
-        <v>510</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>47</v>
-      </c>
-      <c r="D291" s="5">
-        <f>+D289-D290</f>
-        <v>90</v>
-      </c>
-      <c r="E291" s="5">
-        <f>+E289-E290</f>
-        <v>75</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>208</v>
+      </c>
+      <c r="E292" s="5">
+        <f>+D285</f>
+        <v>677.96610169491521</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="E293" s="5">
+        <f>+E285</f>
+        <v>40</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B294" t="s">
-        <v>208</v>
-      </c>
-      <c r="E294" s="5">
-        <f>+D287</f>
-        <v>677.96610169491521</v>
+      <c r="C294" t="s">
+        <v>210</v>
+      </c>
+      <c r="F294" s="5">
+        <f>+F285</f>
+        <v>717.96610169491521</v>
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>209</v>
-      </c>
-      <c r="E295" s="5">
-        <f>+E287</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C296" t="s">
-        <v>210</v>
-      </c>
-      <c r="F296" s="5">
-        <f>+F287</f>
-        <v>717.96610169491521</v>
+        <v>211</v>
       </c>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>211</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>214</v>
+      </c>
+      <c r="E298" s="5">
+        <f>+F280</f>
+        <v>530</v>
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
-        <v>213</v>
+      <c r="C299" t="s">
+        <v>23</v>
+      </c>
+      <c r="F299" s="5">
+        <f>+E298</f>
+        <v>530</v>
       </c>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>214</v>
-      </c>
-      <c r="E300" s="5">
-        <f>+F282</f>
-        <v>530</v>
-      </c>
-    </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C301" t="s">
-        <v>23</v>
-      </c>
-      <c r="F301" s="5">
-        <f>+E300</f>
-        <v>530</v>
+        <v>215</v>
       </c>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>21</v>
+      </c>
+      <c r="E303" s="5">
+        <f>+F287</f>
+        <v>675</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
-        <v>216</v>
+      <c r="C304" t="s">
+        <v>217</v>
+      </c>
+      <c r="F304" s="5">
+        <f>+D287</f>
+        <v>600</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
-        <v>21</v>
-      </c>
-      <c r="E305" s="5">
-        <f>+F289</f>
-        <v>675</v>
+      <c r="C305" t="s">
+        <v>218</v>
+      </c>
+      <c r="F305" s="5">
+        <f>+E287</f>
+        <v>75</v>
       </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C306" t="s">
-        <v>217</v>
-      </c>
-      <c r="F306" s="5">
-        <f>+D289</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C307" t="s">
-        <v>218</v>
-      </c>
-      <c r="F307" s="5">
-        <f>+E289</f>
-        <v>75</v>
+      <c r="B306" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>219</v>
+        <v>27</v>
+      </c>
+      <c r="E308" s="5">
+        <f>+F288</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C309" t="s">
+        <v>23</v>
+      </c>
+      <c r="F309" s="5">
+        <f>+F288</f>
+        <v>510</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>27</v>
-      </c>
-      <c r="E310" s="5">
-        <f>+F290</f>
-        <v>510</v>
-      </c>
-    </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C311" t="s">
-        <v>23</v>
-      </c>
-      <c r="F311" s="5">
-        <f>+F290</f>
-        <v>510</v>
+        <v>220</v>
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B312" t="s">
-        <v>220</v>
+      <c r="D312" t="str">
+        <f>+'Module 23'!D269</f>
+        <v>Contract A</v>
+      </c>
+      <c r="E312" t="str">
+        <f>+'Module 23'!E269</f>
+        <v>Contract B</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>221</v>
+      </c>
+      <c r="D313" s="5">
+        <f>+D285</f>
+        <v>677.96610169491521</v>
+      </c>
+      <c r="E313" s="5">
+        <f>+E285</f>
+        <v>40</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D314" t="str">
-        <f>+'Module 23'!D271</f>
-        <v>Contract A</v>
-      </c>
-      <c r="E314" t="str">
-        <f>+'Module 23'!E271</f>
-        <v>Contract B</v>
+      <c r="B314" t="s">
+        <v>223</v>
+      </c>
+      <c r="D314" s="5">
+        <f>+D287</f>
+        <v>600</v>
+      </c>
+      <c r="E314" s="5">
+        <f>+E287</f>
+        <v>75</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D315" s="5">
-        <f>+D287</f>
-        <v>677.96610169491521</v>
+        <f>+D314-D313</f>
+        <v>-77.96610169491521</v>
       </c>
       <c r="E315" s="5">
-        <f>+E287</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B316" t="s">
-        <v>223</v>
-      </c>
-      <c r="D316" s="5">
-        <f>+D289</f>
-        <v>600</v>
-      </c>
-      <c r="E316" s="5">
-        <f>+E289</f>
-        <v>75</v>
+        <f>+E314-E313</f>
+        <v>35</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D317" s="5">
-        <f>+D316-D315</f>
-        <v>-77.96610169491521</v>
+        <f>+D314</f>
+        <v>600</v>
       </c>
       <c r="E317" s="5">
-        <f>+E316-E315</f>
-        <v>35</v>
+        <f>+E314</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>225</v>
+      </c>
+      <c r="D318" s="5">
+        <f>+D288</f>
+        <v>510</v>
+      </c>
+      <c r="E318" s="5">
+        <f>+E288</f>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D319" s="5">
-        <f>+D316</f>
-        <v>600</v>
+        <f>+D318-D317</f>
+        <v>-90</v>
       </c>
       <c r="E319" s="5">
-        <f>+E316</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B320" t="s">
-        <v>225</v>
-      </c>
-      <c r="D320" s="5">
-        <f>+D290</f>
-        <v>510</v>
-      </c>
-      <c r="E320" s="5">
-        <f>+E290</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B321" t="s">
-        <v>224</v>
-      </c>
-      <c r="D321" s="5">
-        <f>+D320-D319</f>
-        <v>-90</v>
-      </c>
-      <c r="E321" s="5">
-        <f>+E320-E319</f>
+        <f>+E318-E317</f>
         <v>-75</v>
       </c>
     </row>
@@ -4008,6 +4025,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FE74C6-7A71-4289-959B-858C9735F797}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -4210,6 +4228,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9A028C-DDD7-4E28-A042-AE8761EEA781}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -4666,6 +4685,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6B9007-12DC-4E00-9F27-193563EA438F}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -4893,6 +4913,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683F10F1-FBEB-40F8-9CDF-8EA0E597808A}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
@@ -5107,6 +5128,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E34676-45E0-48F0-B04F-95DE2F2652C3}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
@@ -5415,6 +5437,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337E2540-C980-4D2C-9C43-DEB708B8541E}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -5793,6 +5816,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB12B076-9E3A-40D6-B325-F5B16DCA5A1E}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">

--- a/Module 23 - Revenue from Contracts with Customers.xlsx
+++ b/Module 23 - Revenue from Contracts with Customers.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{AC1504BD-9F58-4338-AE1C-6F0A00E8DF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F73584-D15C-4106-95CA-B316C5663F24}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="12420" windowHeight="11385" tabRatio="724" activeTab="1" xr2:uid="{0F730D26-0B02-4D79-9115-73F477E08AB2}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="6675" windowHeight="6945" tabRatio="724" xr2:uid="{0F730D26-0B02-4D79-9115-73F477E08AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -2009,8 +2009,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2473,8 +2473,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,7 +4029,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4232,7 +4232,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4689,7 +4689,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4916,7 +4916,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5131,7 +5133,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5441,7 +5445,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5820,7 +5824,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
